--- a/FinTech/即時股票監控/即時股票資訊.xlsx
+++ b/FinTech/即時股票監控/即時股票資訊.xlsx
@@ -532,77 +532,77 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>98.55</t>
+          <t>113.80</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>▽1.45</t>
+          <t>▽1.20</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>▽(1.45%)</t>
+          <t>▽(1.04%)</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1,280</t>
+          <t>2,224</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>98.55</t>
+          <t>113.80</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>98.50</t>
+          <t>114.20</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>98.70</t>
+          <t>114.20</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>98.35</t>
+          <t>113.40</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>98.50</t>
+          <t>113.75</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>1.26</t>
+          <t>2.53</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>100.00</t>
+          <t>115.00</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>6,995</t>
+          <t>6,219</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>0.35%</t>
+          <t>0.70%</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>484</t>
+          <t>1,470</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>377</t>
+          <t>636</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -612,7 +612,7 @@
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>2022/11/03 09:09</t>
+          <t>2022/12/12 09:30</t>
         </is>
       </c>
     </row>
@@ -629,77 +629,77 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>23.42</t>
+          <t>25.33</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>▽0.25</t>
+          <t>▽0.18</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>▽(1.06%)</t>
+          <t>▽(0.71%)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5,270</t>
+          <t>4,935</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>23.42</t>
+          <t>25.33</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>23.42</t>
+          <t>25.45</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>23.45</t>
+          <t>25.45</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>23.34</t>
+          <t>25.26</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>23.40</t>
+          <t>25.32</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>23.67</t>
+          <t>25.51</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>13,165</t>
+          <t>12,148</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>0.46%</t>
+          <t>0.74%</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>2,626</t>
+          <t>2,167</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>899</t>
+          <t>2,171</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -709,7 +709,7 @@
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>2022/11/03 09:09</t>
+          <t>2022/12/12 09:31</t>
         </is>
       </c>
     </row>
@@ -726,52 +726,52 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>101.0</t>
+          <t>101.5</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>▽1.0</t>
+          <t>▽0.5</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>▽(0.98%)</t>
+          <t>▽(0.49%)</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4,688</t>
+          <t>3,105</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>101.0</t>
+          <t>101.5</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>101.0</t>
+          <t>102.0</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>101.0</t>
+          <t>102.0</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>100.5</t>
+          <t>101.5</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>100.9</t>
+          <t>101.9</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>4.73</t>
+          <t>3.16</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -781,7 +781,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>28,420</t>
+          <t>32,416</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -791,22 +791,22 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>1,150</t>
+          <t>440</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>863</t>
+          <t>998</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>9.81 (22.47)</t>
+          <t>9.69 (31.00)</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>2022/11/03 09:09</t>
+          <t>2022/12/12 09:31</t>
         </is>
       </c>
     </row>
@@ -823,87 +823,87 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>385.5</t>
+          <t>475.5</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>▽9.5</t>
+          <t>▽6.0</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>▽(2.41%)</t>
+          <t>▽(1.25%)</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>7,242</t>
+          <t>4,998</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>385.5</t>
+          <t>475.5</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>385.0</t>
+          <t>476.5</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>387.0</t>
+          <t>478.0</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>384.5</t>
+          <t>474.5</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>385.3</t>
+          <t>476.2</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>27.90</t>
+          <t>23.80</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>395.0</t>
+          <t>481.5</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>22,491</t>
+          <t>25,882</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>0.63%</t>
+          <t>0.73%</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>1,961</t>
+          <t>2,389</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>2,115</t>
+          <t>1,811</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>13.44 (16.21)</t>
+          <t>14.08 (18.76)</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>2022/11/03 09:09</t>
+          <t>2022/12/12 09:31</t>
         </is>
       </c>
     </row>
@@ -920,87 +920,87 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>15.25</t>
+          <t>17.80</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>▽0.30</t>
+          <t>△0.10</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>▽(1.93%)</t>
+          <t>△(0.56%)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>33</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>15.25</t>
+          <t>17.80</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>15.35</t>
+          <t>17.65</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>15.35</t>
+          <t>17.80</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>15.20</t>
+          <t>17.65</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>15.32</t>
+          <t>17.71</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>0.004</t>
+          <t>0.006</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>15.55</t>
+          <t>17.70</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>334</t>
+          <t>338</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>0.96%</t>
+          <t>0.85%</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>14</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>16</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>17.47 (16.21)</t>
+          <t>17.35 (18.76)</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>2022/11/03 09:09</t>
+          <t>2022/12/12 09:31</t>
         </is>
       </c>
     </row>
@@ -1017,87 +1017,87 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>592</t>
+          <t>709</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>▽7</t>
+          <t>▽20</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>▽(1.17%)</t>
+          <t>▽(2.74%)</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1,172</t>
+          <t>1,175</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>592</t>
+          <t>709</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>587</t>
+          <t>715</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>593</t>
+          <t>716</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>587</t>
+          <t>709</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>589</t>
+          <t>712</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>6.91</t>
+          <t>8.36</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>599</t>
+          <t>729</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>6,655</t>
+          <t>4,349</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>1.00%</t>
+          <t>0.96%</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>398</t>
+          <t>732</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>340</t>
+          <t>315</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>7.50 (16.21)</t>
+          <t>8.95 (18.76)</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>2022/11/03 09:09</t>
+          <t>2022/12/12 09:31</t>
         </is>
       </c>
     </row>
@@ -1114,87 +1114,87 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>38.90</t>
+          <t>43.25</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>▽0.45</t>
+          <t>▽0.25</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>▽(1.14%)</t>
+          <t>▽(0.57%)</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4,429</t>
+          <t>7,027</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>38.90</t>
+          <t>43.25</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>38.85</t>
+          <t>43.35</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>39.00</t>
+          <t>43.35</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>38.60</t>
+          <t>43.00</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>38.84</t>
+          <t>43.18</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>3.03</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>39.35</t>
+          <t>43.50</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>39,909</t>
+          <t>55,403</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>1.02%</t>
+          <t>0.80%</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>2,037</t>
+          <t>3,900</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>1,389</t>
+          <t>2,505</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>5.84 (16.21)</t>
+          <t>6.45 (18.76)</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>2022/11/03 09:09</t>
+          <t>2022/12/12 09:31</t>
         </is>
       </c>
     </row>
@@ -1211,87 +1211,87 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>68.4</t>
+          <t>72.6</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>▽0.1</t>
+          <t>▽0.9</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>▽(0.15%)</t>
+          <t>▽(1.22%)</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>533</t>
+          <t>1,187</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>68.4</t>
+          <t>72.6</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>68.0</t>
+          <t>73.5</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>68.6</t>
+          <t>73.5</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>68.0</t>
+          <t>72.2</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>68.2</t>
+          <t>72.8</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>0.364</t>
+          <t>0.864</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>68.5</t>
+          <t>73.5</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>4,670</t>
+          <t>9,484</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>0.88%</t>
+          <t>1.77%</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>541</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>508</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>7.76 (20.71)</t>
+          <t>11.61 (40.37)</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>2022/11/03 09:09</t>
+          <t>2022/12/12 09:31</t>
         </is>
       </c>
     </row>
@@ -1308,87 +1308,87 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>65.7</t>
+          <t>63.6</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>▽0.7</t>
+          <t>▽0.1</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>▽(1.05%)</t>
+          <t>▽(0.16%)</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>864</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>65.7</t>
+          <t>63.6</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>65.4</t>
+          <t>63.2</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>66.0</t>
+          <t>63.7</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>65.4</t>
+          <t>63.2</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>65.7</t>
+          <t>63.5</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>0.165</t>
+          <t>0.548</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>66.4</t>
+          <t>63.7</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>6,178</t>
+          <t>6,725</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>0.90%</t>
+          <t>0.78%</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>302</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>406</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>11.86 (17.55)</t>
+          <t>11.38 (19.42)</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>2022/11/03 09:09</t>
+          <t>2022/12/12 09:31</t>
         </is>
       </c>
     </row>
@@ -1405,7 +1405,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>20.80</t>
+          <t>21.60</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1415,77 +1415,77 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>▽(1.65%)</t>
+          <t>▽(1.59%)</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>975</t>
+          <t>1,352</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>20.80</t>
+          <t>21.60</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>20.75</t>
+          <t>21.75</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>20.85</t>
+          <t>21.80</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>20.75</t>
+          <t>21.55</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>20.78</t>
+          <t>21.67</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>0.203</t>
+          <t>0.293</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>21.15</t>
+          <t>21.95</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>6,488</t>
+          <t>10,705</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>0.47%</t>
+          <t>1.14%</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>274</t>
+          <t>810</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>385</t>
+          <t>409</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>7.86 (17.55)</t>
+          <t>10.16 (19.42)</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>2022/11/03 09:09</t>
+          <t>2022/12/12 09:31</t>
         </is>
       </c>
     </row>
@@ -1502,87 +1502,87 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>17.95</t>
+          <t>18.65</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>▽0.30</t>
+          <t>▽0.55</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>▽(1.64%)</t>
+          <t>▽(2.86%)</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1,499</t>
+          <t>3,053</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>17.95</t>
+          <t>18.65</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>17.90</t>
+          <t>18.60</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>18.00</t>
+          <t>18.70</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>17.75</t>
+          <t>18.50</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>17.89</t>
+          <t>18.61</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>0.268</t>
+          <t>0.568</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>18.25</t>
+          <t>19.20</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>19,012</t>
+          <t>6,216</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>1.37%</t>
+          <t>1.04%</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>687</t>
+          <t>1,541</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>549</t>
+          <t>995</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>40.85 (14.76)</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>2022/11/03 09:09</t>
+          <t>2022/12/12 09:31</t>
         </is>
       </c>
     </row>
@@ -1599,87 +1599,87 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>1,865</t>
+          <t>2,190</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>▽15</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>▽(0.80%)</t>
+          <t>(0.00%)</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>102</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>1,865</t>
+          <t>2,190</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>1,860</t>
+          <t>2,160</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>1,865</t>
+          <t>2,205</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>1,850</t>
+          <t>2,160</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>1,858</t>
+          <t>2,180</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>0.929</t>
+          <t>2.22</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>1,880</t>
+          <t>2,190</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>390</t>
+          <t>806</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>0.80%</t>
+          <t>2.05%</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>42</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>52</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>10.57 (48.64)</t>
+          <t>12.31 (49.67)</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>2022/11/03 09:09</t>
+          <t>2022/12/12 09:31</t>
         </is>
       </c>
     </row>
@@ -1696,7 +1696,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>17.80</t>
+          <t>15.45</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1706,77 +1706,77 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>▽(1.39%)</t>
+          <t>▽(1.59%)</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>6,235</t>
+          <t>7,634</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>17.80</t>
+          <t>15.45</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>17.70</t>
+          <t>15.60</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>17.90</t>
+          <t>15.65</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>17.65</t>
+          <t>15.40</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>17.77</t>
+          <t>15.52</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>18.05</t>
+          <t>15.70</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>48,604</t>
+          <t>18,635</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>1.39%</t>
+          <t>1.59%</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>2,567</t>
+          <t>5,457</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>2,833</t>
+          <t>1,688</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>5.86 (48.64)</t>
+          <t>-</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>2022/11/03 09:09</t>
+          <t>2022/12/12 09:31</t>
         </is>
       </c>
     </row>
@@ -1793,87 +1793,87 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>12.45</t>
+          <t>11.80</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>▽0.15</t>
+          <t>▽0.20</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>▽(1.19%)</t>
+          <t>▽(1.67%)</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>5,660</t>
+          <t>11,502</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>12.45</t>
+          <t>11.80</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>12.45</t>
+          <t>11.95</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>12.55</t>
+          <t>11.95</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>12.35</t>
+          <t>11.75</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>12.46</t>
+          <t>11.83</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>0.705</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>12.60</t>
+          <t>12.00</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>47,794</t>
+          <t>29,745</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>1.59%</t>
+          <t>1.67%</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>1,815</t>
+          <t>5,882</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>2,345</t>
+          <t>4,952</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>6.12 (48.64)</t>
+          <t>-</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>2022/11/03 09:09</t>
+          <t>2022/12/12 09:31</t>
         </is>
       </c>
     </row>
@@ -1890,62 +1890,62 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>9.45</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>▽0.05</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>▽(0.53%)</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>341</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>9.45</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>9.47</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>9.48</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
           <t>9.42</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>▽0.03</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>▽(0.32%)</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>9.42</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>9.38</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>9.42</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>9.36</t>
-        </is>
-      </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>9.39</t>
+          <t>9.45</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>0.004</t>
+          <t>0.032</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>9.45</t>
+          <t>9.50</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>1,196</t>
+          <t>942</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -1955,22 +1955,22 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>262</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>35</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>25.54 (48.64)</t>
+          <t>25.68 (49.67)</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>2022/11/03 09:09</t>
+          <t>2022/12/12 09:31</t>
         </is>
       </c>
     </row>
@@ -1987,87 +1987,87 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>26.80</t>
+          <t>28.70</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>▽0.40</t>
+          <t>▽0.35</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>▽(1.47%)</t>
+          <t>▽(1.20%)</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2,271</t>
+          <t>3,512</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>26.80</t>
+          <t>28.70</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>26.80</t>
+          <t>29.00</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>26.90</t>
+          <t>29.05</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>26.75</t>
+          <t>28.55</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>26.81</t>
+          <t>28.74</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>0.609</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>27.20</t>
+          <t>29.05</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>13,774</t>
+          <t>20,345</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>0.55%</t>
+          <t>1.72%</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>1,012</t>
+          <t>2,340</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>684</t>
+          <t>1,092</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>7.14 (17.29)</t>
+          <t>11.00 (19.11)</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>2022/11/03 09:09</t>
+          <t>2022/12/12 09:31</t>
         </is>
       </c>
     </row>
@@ -2084,87 +2084,87 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>124.5</t>
+          <t>149.0</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>▽2.0</t>
+          <t>▽0.5</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>▽(1.58%)</t>
+          <t>▽(0.33%)</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>668</t>
+          <t>796</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>124.5</t>
+          <t>149.0</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>123.0</t>
+          <t>147.5</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>125.0</t>
+          <t>149.5</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>122.5</t>
+          <t>145.5</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>123.7</t>
+          <t>147.4</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>0.827</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>126.5</t>
+          <t>149.5</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>4,844</t>
+          <t>1,471</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>1.98%</t>
+          <t>2.68%</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>290</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>281</t>
+          <t>466</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>11.06 (18.84)</t>
+          <t>17.36 (19.67)</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>2022/11/03 09:09</t>
+          <t>2022/12/12 09:31</t>
         </is>
       </c>
     </row>
@@ -2181,87 +2181,87 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>133.5</t>
+          <t>155.0</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>▽3.5</t>
+          <t>△0.5</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>▽(2.55%)</t>
+          <t>△(0.32%)</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>10,262</t>
+          <t>5,048</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>133.5</t>
+          <t>155.0</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>132.0</t>
+          <t>153.0</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>134.0</t>
+          <t>155.5</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>131.5</t>
+          <t>152.0</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>132.5</t>
+          <t>153.6</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>13.59</t>
+          <t>7.76</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>137.0</t>
+          <t>154.5</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>46,999</t>
+          <t>16,582</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>1.82%</t>
+          <t>2.27%</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>3,470</t>
+          <t>2,099</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>4,559</t>
+          <t>2,255</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>1.99 (16.43)</t>
+          <t>0.85 (17.82)</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>2022/11/03 09:09</t>
+          <t>2022/12/12 09:31</t>
         </is>
       </c>
     </row>
@@ -2278,87 +2278,87 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>58.5</t>
+          <t>62.4</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>▽1.3</t>
+          <t>▽0.4</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>▽(2.17%)</t>
+          <t>▽(0.64%)</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>7,358</t>
+          <t>6,556</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>58.5</t>
+          <t>62.4</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>58.1</t>
+          <t>62.2</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>58.6</t>
+          <t>62.9</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>57.8</t>
+          <t>61.7</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>58.2</t>
+          <t>62.2</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>4.28</t>
+          <t>4.07</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>59.8</t>
+          <t>62.8</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>52,267</t>
+          <t>29,781</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>1.34%</t>
+          <t>1.91%</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>3,161</t>
+          <t>3,200</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>3,057</t>
+          <t>2,859</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>0.94 (16.43)</t>
+          <t>0.99 (17.82)</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>2022/11/03 09:09</t>
+          <t>2022/12/12 09:31</t>
         </is>
       </c>
     </row>
@@ -2375,87 +2375,87 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>70.1</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>▽1.5</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>▽(2.26%)</t>
+          <t>(0.00%)</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2,539</t>
+          <t>3,196</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>70.1</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>64.4</t>
+          <t>69.2</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>70.9</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>64.1</t>
+          <t>69.0</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>64.6</t>
+          <t>69.8</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>1.64</t>
+          <t>2.23</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>66.5</t>
+          <t>70.1</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>17,887</t>
+          <t>9,355</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>1.35%</t>
+          <t>2.71%</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>1,132</t>
+          <t>1,504</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>1,048</t>
+          <t>1,525</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>1.16 (16.43)</t>
+          <t>1.55 (17.82)</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>2022/11/03 09:09</t>
+          <t>2022/12/12 09:31</t>
         </is>
       </c>
     </row>
@@ -2472,87 +2472,87 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>23.40</t>
+          <t>28.45</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>▽0.35</t>
+          <t>△0.10</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>▽(1.47%)</t>
+          <t>△(0.35%)</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>5,664</t>
+          <t>12,078</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>23.40</t>
+          <t>28.45</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>23.50</t>
+          <t>28.60</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>23.50</t>
+          <t>28.75</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>23.20</t>
+          <t>28.25</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>23.37</t>
+          <t>28.50</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>1.32</t>
+          <t>3.44</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>23.75</t>
+          <t>28.35</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>25,661</t>
+          <t>42,230</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>1.26%</t>
+          <t>1.76%</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>2,841</t>
+          <t>6,696</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>1,512</t>
+          <t>4,933</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>9.39 (16.43)</t>
+          <t>11.21 (17.82)</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>2022/11/03 09:09</t>
+          <t>2022/12/12 09:31</t>
         </is>
       </c>
     </row>
@@ -2569,87 +2569,87 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>16.65</t>
+          <t>19.65</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>▽0.25</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>▽(1.48%)</t>
+          <t>(0.00%)</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>4,454</t>
+          <t>24,630</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>16.65</t>
+          <t>19.65</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>16.75</t>
+          <t>19.70</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>16.75</t>
+          <t>19.90</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>16.50</t>
+          <t>19.50</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>16.64</t>
+          <t>19.68</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>0.741</t>
+          <t>4.85</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>16.90</t>
+          <t>19.65</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>20,116</t>
+          <t>82,463</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>1.48%</t>
+          <t>2.04%</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>2,684</t>
+          <t>12,533</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>1,177</t>
+          <t>10,301</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>7.13 (16.43)</t>
+          <t>10.34 (17.82)</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>2022/11/03 09:09</t>
+          <t>2022/12/12 09:31</t>
         </is>
       </c>
     </row>
@@ -2666,87 +2666,87 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>19.80</t>
+          <t>20.65</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>▽0.30</t>
+          <t>▽0.05</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>▽(1.49%)</t>
+          <t>▽(0.24%)</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>945</t>
+          <t>1,737</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>19.80</t>
+          <t>20.65</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>19.75</t>
+          <t>20.60</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>19.95</t>
+          <t>20.65</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>19.70</t>
+          <t>20.45</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>19.80</t>
+          <t>20.54</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>0.187</t>
+          <t>0.357</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>20.10</t>
+          <t>20.70</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>8,199</t>
+          <t>13,486</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>1.24%</t>
+          <t>0.97%</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>474</t>
+          <t>1,011</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>384</t>
+          <t>522</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>4.35 (16.21)</t>
+          <t>4.96 (18.76)</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>2022/11/03 09:09</t>
+          <t>2022/12/12 09:31</t>
         </is>
       </c>
     </row>
